--- a/testdata/Wsr.xlsx
+++ b/testdata/Wsr.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="8">
   <si>
     <t>Project Name</t>
   </si>
@@ -692,7 +692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,6 +734,8 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
@@ -1334,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" t="s" s="50">
+      <c r="E3" t="s" s="52">
         <v>6</v>
       </c>
       <c r="F3" s="4"/>

--- a/testdata/Wsr.xlsx
+++ b/testdata/Wsr.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="8">
   <si>
     <t>Project Name</t>
   </si>
@@ -692,7 +692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,6 +734,15 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
@@ -1336,7 +1345,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" t="s" s="52">
+      <c r="E3" t="s" s="61">
         <v>6</v>
       </c>
       <c r="F3" s="4"/>
